--- a/output/supp_mat2.xlsx
+++ b/output/supp_mat2.xlsx
@@ -68,13 +68,13 @@
     <t xml:space="preserve">x_Fe</t>
   </si>
   <si>
-    <t xml:space="preserve">% of body mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADMR</t>
+    <t xml:space="preserve">% of body mass (daily ration)</t>
   </si>
   <si>
     <t xml:space="preserve">Assimilation rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Daily Metabolic Rate (kJ)</t>
   </si>
   <si>
     <t xml:space="preserve">Daily ration (kg)</t>
@@ -966,22 +966,22 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>13.9553759972562</v>
+        <v>14.0361928983377</v>
       </c>
       <c r="C22" t="n">
-        <v>40.949877633946</v>
+        <v>41.1870222447896</v>
       </c>
       <c r="D22" t="n">
-        <v>67.468913610238</v>
+        <v>67.8596324642761</v>
       </c>
       <c r="E22" t="n">
-        <v>67.4707108550653</v>
+        <v>67.8614401171181</v>
       </c>
       <c r="F22" t="n">
-        <v>93.7323575680509</v>
+        <v>94.275170507753</v>
       </c>
       <c r="G22" t="n">
-        <v>125.211840917443</v>
+        <v>125.936954519803</v>
       </c>
       <c r="H22" t="s">
         <v>17</v>
@@ -992,22 +992,22 @@
         <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>4.74361781956691</v>
+        <v>4.86455732322552</v>
       </c>
       <c r="C23" t="n">
-        <v>13.7764423439195</v>
+        <v>14.1276755508576</v>
       </c>
       <c r="D23" t="n">
-        <v>22.6446125157056</v>
+        <v>23.2219415296271</v>
       </c>
       <c r="E23" t="n">
-        <v>22.6413023549325</v>
+        <v>23.21854697563</v>
       </c>
       <c r="F23" t="n">
-        <v>31.4609650185001</v>
+        <v>32.263068737367</v>
       </c>
       <c r="G23" t="n">
-        <v>44.3854201128228</v>
+        <v>45.5170354499567</v>
       </c>
       <c r="H23" t="s">
         <v>17</v>
@@ -1018,22 +1018,22 @@
         <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>2.65500582636507</v>
+        <v>2.65575157778109</v>
       </c>
       <c r="C24" t="n">
-        <v>6.90623673321767</v>
+        <v>6.90817659179424</v>
       </c>
       <c r="D24" t="n">
-        <v>11.41181420547</v>
+        <v>11.4150196133521</v>
       </c>
       <c r="E24" t="n">
-        <v>11.4105543441385</v>
+        <v>11.4137593981445</v>
       </c>
       <c r="F24" t="n">
-        <v>15.8939368219575</v>
+        <v>15.8984011910272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.6577067033601</v>
+        <v>20.6635091441203</v>
       </c>
       <c r="H24" t="s">
         <v>17</v>
@@ -1044,22 +1044,22 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>3.44555878258705</v>
+        <v>3.48686200365584</v>
       </c>
       <c r="C25" t="n">
-        <v>9.75143998307337</v>
+        <v>9.86833419581917</v>
       </c>
       <c r="D25" t="n">
-        <v>16.0468649104778</v>
+        <v>16.2392247715859</v>
       </c>
       <c r="E25" t="n">
-        <v>16.0588397474394</v>
+        <v>16.2513431554639</v>
       </c>
       <c r="F25" t="n">
-        <v>22.3210842929361</v>
+        <v>22.5886556034896</v>
       </c>
       <c r="G25" t="n">
-        <v>29.6548001554127</v>
+        <v>30.0102835019049</v>
       </c>
       <c r="H25" t="s">
         <v>17</v>
@@ -1096,22 +1096,22 @@
         <v>8</v>
       </c>
       <c r="B27" t="n">
-        <v>25609.6391427034</v>
+        <v>0.8500022449065</v>
       </c>
       <c r="C27" t="n">
-        <v>44065.4880345249</v>
+        <v>0.853354669095716</v>
       </c>
       <c r="D27" t="n">
-        <v>70953.2529705163</v>
+        <v>0.90001421452869</v>
       </c>
       <c r="E27" t="n">
-        <v>70235.8051846787</v>
+        <v>0.900036250543781</v>
       </c>
       <c r="F27" t="n">
-        <v>101988.286173924</v>
+        <v>0.946639078844455</v>
       </c>
       <c r="G27" t="n">
-        <v>134438.946863554</v>
+        <v>0.949999343883246</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
@@ -1122,22 +1122,22 @@
         <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8500022449065</v>
+        <v>25609.6391427034</v>
       </c>
       <c r="C28" t="n">
-        <v>0.853354669095716</v>
+        <v>44065.4880345249</v>
       </c>
       <c r="D28" t="n">
-        <v>0.90001421452869</v>
+        <v>70953.2529705163</v>
       </c>
       <c r="E28" t="n">
-        <v>0.900036250543781</v>
+        <v>70235.8051846787</v>
       </c>
       <c r="F28" t="n">
-        <v>0.946639078844455</v>
+        <v>101988.286173924</v>
       </c>
       <c r="G28" t="n">
-        <v>0.949999343883246</v>
+        <v>134438.946863554</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
@@ -1200,22 +1200,22 @@
         <v>10</v>
       </c>
       <c r="B31" t="n">
-        <v>16366.6622391979</v>
+        <v>0.850000723684207</v>
       </c>
       <c r="C31" t="n">
-        <v>27307.7683558608</v>
+        <v>0.853311352704186</v>
       </c>
       <c r="D31" t="n">
-        <v>45048.6253765035</v>
+        <v>0.899974893716823</v>
       </c>
       <c r="E31" t="n">
-        <v>43871.4800927683</v>
+        <v>0.900045452569611</v>
       </c>
       <c r="F31" t="n">
-        <v>69067.4372256124</v>
+        <v>0.946560657818918</v>
       </c>
       <c r="G31" t="n">
-        <v>102213.692282466</v>
+        <v>0.949999961559661</v>
       </c>
       <c r="H31" t="s">
         <v>19</v>
@@ -1226,22 +1226,22 @@
         <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>0.850000723684207</v>
+        <v>16366.6622391979</v>
       </c>
       <c r="C32" t="n">
-        <v>0.853311352704186</v>
+        <v>27307.7683558608</v>
       </c>
       <c r="D32" t="n">
-        <v>0.899974893716823</v>
+        <v>45048.6253765035</v>
       </c>
       <c r="E32" t="n">
-        <v>0.900045452569611</v>
+        <v>43871.4800927683</v>
       </c>
       <c r="F32" t="n">
-        <v>0.946560657818918</v>
+        <v>69067.4372256124</v>
       </c>
       <c r="G32" t="n">
-        <v>0.949999961559661</v>
+        <v>102213.692282466</v>
       </c>
       <c r="H32" t="s">
         <v>20</v>
@@ -1304,22 +1304,22 @@
         <v>11</v>
       </c>
       <c r="B35" t="n">
-        <v>16000.1483673584</v>
+        <v>0.850000324193388</v>
       </c>
       <c r="C35" t="n">
-        <v>21006.6100155806</v>
+        <v>0.853410133383586</v>
       </c>
       <c r="D35" t="n">
-        <v>33578.2578569923</v>
+        <v>0.899879810201968</v>
       </c>
       <c r="E35" t="n">
-        <v>32690.2927165098</v>
+        <v>0.899742677272297</v>
       </c>
       <c r="F35" t="n">
-        <v>51012.3337022561</v>
+        <v>0.946668707599747</v>
       </c>
       <c r="G35" t="n">
-        <v>76768.0467392613</v>
+        <v>0.949999756016768</v>
       </c>
       <c r="H35" t="s">
         <v>19</v>
@@ -1330,22 +1330,22 @@
         <v>11</v>
       </c>
       <c r="B36" t="n">
-        <v>0.850000324193388</v>
+        <v>16000.1483673584</v>
       </c>
       <c r="C36" t="n">
-        <v>0.853410133383586</v>
+        <v>21006.6100155806</v>
       </c>
       <c r="D36" t="n">
-        <v>0.899879810201968</v>
+        <v>33578.2578569923</v>
       </c>
       <c r="E36" t="n">
-        <v>0.899742677272297</v>
+        <v>32690.2927165098</v>
       </c>
       <c r="F36" t="n">
-        <v>0.946668707599747</v>
+        <v>51012.3337022561</v>
       </c>
       <c r="G36" t="n">
-        <v>0.949999756016768</v>
+        <v>76768.0467392613</v>
       </c>
       <c r="H36" t="s">
         <v>20</v>
@@ -1408,22 +1408,22 @@
         <v>12</v>
       </c>
       <c r="B39" t="n">
-        <v>14004.2949339101</v>
+        <v>0.850000336696394</v>
       </c>
       <c r="C39" t="n">
-        <v>17885.2557360079</v>
+        <v>0.853434942426975</v>
       </c>
       <c r="D39" t="n">
-        <v>28373.5980168464</v>
+        <v>0.900126308789642</v>
       </c>
       <c r="E39" t="n">
-        <v>27595.8966911044</v>
+        <v>0.90010527682025</v>
       </c>
       <c r="F39" t="n">
-        <v>42891.6498649898</v>
+        <v>0.946597219753312</v>
       </c>
       <c r="G39" t="n">
-        <v>61848.9121080208</v>
+        <v>0.949999641929753</v>
       </c>
       <c r="H39" t="s">
         <v>19</v>
@@ -1434,22 +1434,22 @@
         <v>12</v>
       </c>
       <c r="B40" t="n">
-        <v>0.850000336696394</v>
+        <v>14004.2949339101</v>
       </c>
       <c r="C40" t="n">
-        <v>0.853434942426975</v>
+        <v>17885.2557360079</v>
       </c>
       <c r="D40" t="n">
-        <v>0.900126308789642</v>
+        <v>28373.5980168464</v>
       </c>
       <c r="E40" t="n">
-        <v>0.90010527682025</v>
+        <v>27595.8966911044</v>
       </c>
       <c r="F40" t="n">
-        <v>0.946597219753312</v>
+        <v>42891.6498649898</v>
       </c>
       <c r="G40" t="n">
-        <v>0.949999641929753</v>
+        <v>61848.9121080208</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
@@ -1486,22 +1486,22 @@
         <v>8</v>
       </c>
       <c r="B42" t="n">
-        <v>136.763768366082</v>
+        <v>137.555780271871</v>
       </c>
       <c r="C42" t="n">
-        <v>370.237999446398</v>
+        <v>372.382082685988</v>
       </c>
       <c r="D42" t="n">
-        <v>833.211195086404</v>
+        <v>838.036399849542</v>
       </c>
       <c r="E42" t="n">
-        <v>781.378716467545</v>
+        <v>785.90375444921</v>
       </c>
       <c r="F42" t="n">
-        <v>1597.42250839946</v>
+        <v>1606.6733330904</v>
       </c>
       <c r="G42" t="n">
-        <v>4752.72618341296</v>
+        <v>4780.24966983913</v>
       </c>
       <c r="H42" t="s">
         <v>22</v>
@@ -1512,22 +1512,22 @@
         <v>10</v>
       </c>
       <c r="B43" t="n">
-        <v>26.5288871708701</v>
+        <v>27.205246559231</v>
       </c>
       <c r="C43" t="n">
-        <v>95.9366536083414</v>
+        <v>98.3825781560992</v>
       </c>
       <c r="D43" t="n">
-        <v>220.403253286569</v>
+        <v>226.022479175145</v>
       </c>
       <c r="E43" t="n">
-        <v>204.918409250996</v>
+        <v>210.142845883117</v>
       </c>
       <c r="F43" t="n">
-        <v>434.994864353706</v>
+        <v>446.085147127326</v>
       </c>
       <c r="G43" t="n">
-        <v>1391.2486399741</v>
+        <v>1426.71880776252</v>
       </c>
       <c r="H43" t="s">
         <v>22</v>
@@ -1538,22 +1538,22 @@
         <v>11</v>
       </c>
       <c r="B44" t="n">
-        <v>8.48873169153122</v>
+        <v>8.49111604926644</v>
       </c>
       <c r="C44" t="n">
-        <v>38.6719499224293</v>
+        <v>38.682812294605</v>
       </c>
       <c r="D44" t="n">
-        <v>87.2824251105611</v>
+        <v>87.3069414379729</v>
       </c>
       <c r="E44" t="n">
-        <v>81.1881927313194</v>
+        <v>81.2109972800295</v>
       </c>
       <c r="F44" t="n">
-        <v>170.932358281768</v>
+        <v>170.980370623951</v>
       </c>
       <c r="G44" t="n">
-        <v>568.70207021848</v>
+        <v>568.861810121852</v>
       </c>
       <c r="H44" t="s">
         <v>22</v>
@@ -1564,22 +1564,22 @@
         <v>12</v>
       </c>
       <c r="B45" t="n">
-        <v>14.8492311479538</v>
+        <v>15.0272345185261</v>
       </c>
       <c r="C45" t="n">
-        <v>49.2352723763121</v>
+        <v>49.8254742761078</v>
       </c>
       <c r="D45" t="n">
-        <v>110.426253487369</v>
+        <v>111.749974905978</v>
       </c>
       <c r="E45" t="n">
-        <v>102.806285577415</v>
+        <v>104.03866354813</v>
       </c>
       <c r="F45" t="n">
-        <v>216.213709114395</v>
+        <v>218.805544920763</v>
       </c>
       <c r="G45" t="n">
-        <v>566.134981351802</v>
+        <v>572.921456279388</v>
       </c>
       <c r="H45" t="s">
         <v>22</v>
@@ -1590,22 +1590,22 @@
         <v>8</v>
       </c>
       <c r="B46" t="n">
-        <v>111.183601861442</v>
+        <v>111.827476605863</v>
       </c>
       <c r="C46" t="n">
-        <v>291.14273479941</v>
+        <v>292.828769887502</v>
       </c>
       <c r="D46" t="n">
-        <v>666.631344542447</v>
+        <v>670.491869650502</v>
       </c>
       <c r="E46" t="n">
-        <v>622.886901668764</v>
+        <v>626.494098574606</v>
       </c>
       <c r="F46" t="n">
-        <v>1293.04513858494</v>
+        <v>1300.53328516584</v>
       </c>
       <c r="G46" t="n">
-        <v>4106.88256971946</v>
+        <v>4130.66591475121</v>
       </c>
       <c r="H46" t="s">
         <v>23</v>
@@ -1616,22 +1616,22 @@
         <v>10</v>
       </c>
       <c r="B47" t="n">
-        <v>19.9811519316262</v>
+        <v>20.4905754748067</v>
       </c>
       <c r="C47" t="n">
-        <v>75.6519538606558</v>
+        <v>77.5807158517612</v>
       </c>
       <c r="D47" t="n">
-        <v>176.229553637585</v>
+        <v>180.722562045428</v>
       </c>
       <c r="E47" t="n">
-        <v>163.497820786053</v>
+        <v>167.66623106851</v>
       </c>
       <c r="F47" t="n">
-        <v>351.436028060313</v>
+        <v>360.395961262783</v>
       </c>
       <c r="G47" t="n">
-        <v>1240.64260204871</v>
+        <v>1272.27303818768</v>
       </c>
       <c r="H47" t="s">
         <v>23</v>
@@ -1642,22 +1642,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="n">
-        <v>6.40432120301247</v>
+        <v>6.4061200810256</v>
       </c>
       <c r="C48" t="n">
-        <v>30.4462303812936</v>
+        <v>30.4547822719123</v>
       </c>
       <c r="D48" t="n">
-        <v>69.8303092713948</v>
+        <v>69.8499235605624</v>
       </c>
       <c r="E48" t="n">
-        <v>64.760169550068</v>
+        <v>64.7783597128404</v>
       </c>
       <c r="F48" t="n">
-        <v>138.599130398239</v>
+        <v>138.638060820435</v>
       </c>
       <c r="G48" t="n">
-        <v>483.964116947884</v>
+        <v>484.100055227918</v>
       </c>
       <c r="H48" t="s">
         <v>23</v>
@@ -1668,22 +1668,22 @@
         <v>12</v>
       </c>
       <c r="B49" t="n">
-        <v>11.5688689549942</v>
+        <v>11.7075493787266</v>
       </c>
       <c r="C49" t="n">
-        <v>38.7397069111181</v>
+        <v>39.2040944835421</v>
       </c>
       <c r="D49" t="n">
-        <v>88.3767519193509</v>
+        <v>89.4361575926233</v>
       </c>
       <c r="E49" t="n">
-        <v>82.0463146061367</v>
+        <v>83.0298349242873</v>
       </c>
       <c r="F49" t="n">
-        <v>174.890814892318</v>
+        <v>176.987297479381</v>
       </c>
       <c r="G49" t="n">
-        <v>482.090451918989</v>
+        <v>487.869453168769</v>
       </c>
       <c r="H49" t="s">
         <v>23</v>

--- a/output/supp_mat2.xlsx
+++ b/output/supp_mat2.xlsx
@@ -550,22 +550,22 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.700001811236143</v>
+        <v>0.700000837771222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.70496788044693</v>
+        <v>0.705029719932936</v>
       </c>
       <c r="D6" t="n">
-        <v>0.80007383994121</v>
+        <v>0.80010373602437</v>
       </c>
       <c r="E6" t="n">
-        <v>0.800271685374901</v>
+        <v>0.800087878992781</v>
       </c>
       <c r="F6" t="n">
-        <v>0.895090315255802</v>
+        <v>0.894985176165355</v>
       </c>
       <c r="G6" t="n">
-        <v>0.899998423038051</v>
+        <v>0.899996816599742</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -579,19 +579,19 @@
         <v>0.700001150928438</v>
       </c>
       <c r="C7" t="n">
-        <v>0.705093145510182</v>
+        <v>0.70518632778083</v>
       </c>
       <c r="D7" t="n">
-        <v>0.799647583791757</v>
+        <v>0.799842434518364</v>
       </c>
       <c r="E7" t="n">
-        <v>0.79933705937583</v>
+        <v>0.799387567606755</v>
       </c>
       <c r="F7" t="n">
-        <v>0.895062818252481</v>
+        <v>0.895146227880614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.899995928537101</v>
+        <v>0.899997866572812</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -602,19 +602,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.700000837771222</v>
+        <v>0.700002807471901</v>
       </c>
       <c r="C8" t="n">
-        <v>0.705081279155566</v>
+        <v>0.705009833694203</v>
       </c>
       <c r="D8" t="n">
-        <v>0.800030204583919</v>
+        <v>0.799936282470425</v>
       </c>
       <c r="E8" t="n">
-        <v>0.799941926635802</v>
+        <v>0.800015754951164</v>
       </c>
       <c r="F8" t="n">
-        <v>0.895009273065953</v>
+        <v>0.895025935817976</v>
       </c>
       <c r="G8" t="n">
         <v>0.899999898858368</v>
@@ -628,22 +628,22 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.700002903211862</v>
+        <v>0.700003120908514</v>
       </c>
       <c r="C9" t="n">
-        <v>0.705080787969055</v>
+        <v>0.70510161321261</v>
       </c>
       <c r="D9" t="n">
-        <v>0.800366981181518</v>
+        <v>0.800186654178225</v>
       </c>
       <c r="E9" t="n">
-        <v>0.800514999125153</v>
+        <v>0.800281350966543</v>
       </c>
       <c r="F9" t="n">
-        <v>0.894994616878685</v>
+        <v>0.894973361308221</v>
       </c>
       <c r="G9" t="n">
-        <v>0.89999964335002</v>
+        <v>0.899999094428495</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -761,19 +761,19 @@
         <v>2.00006225495175</v>
       </c>
       <c r="C14" t="n">
-        <v>2.1635568070267</v>
+        <v>2.14349247503871</v>
       </c>
       <c r="D14" t="n">
-        <v>2.99985416289308</v>
+        <v>2.88586053978329</v>
       </c>
       <c r="E14" t="n">
-        <v>3.00078225021505</v>
+        <v>2.91716835666381</v>
       </c>
       <c r="F14" t="n">
-        <v>3.83738228851313</v>
+        <v>3.45922912691538</v>
       </c>
       <c r="G14" t="n">
-        <v>3.99998510921555</v>
+        <v>3.49993246406701</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -787,19 +787,19 @@
         <v>1.50003185815246</v>
       </c>
       <c r="C15" t="n">
-        <v>1.54173246736505</v>
+        <v>1.54055711441812</v>
       </c>
       <c r="D15" t="n">
-        <v>2.13934198280267</v>
+        <v>2.11544205582092</v>
       </c>
       <c r="E15" t="n">
-        <v>2.09676970067916</v>
+        <v>2.08594012344671</v>
       </c>
       <c r="F15" t="n">
-        <v>2.99748874673924</v>
+        <v>2.86242209502481</v>
       </c>
       <c r="G15" t="n">
-        <v>3.49674421285102</v>
+        <v>2.99991086842186</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -813,19 +813,19 @@
         <v>1.50000109295336</v>
       </c>
       <c r="C16" t="n">
-        <v>1.54155441498648</v>
+        <v>1.54084173711942</v>
       </c>
       <c r="D16" t="n">
-        <v>2.14328752820788</v>
+        <v>2.11745501779384</v>
       </c>
       <c r="E16" t="n">
-        <v>2.1023006098673</v>
+        <v>2.09003114090372</v>
       </c>
       <c r="F16" t="n">
-        <v>2.99654669463597</v>
+        <v>2.86086508112847</v>
       </c>
       <c r="G16" t="n">
-        <v>3.49656624052573</v>
+        <v>2.99997676691084</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -839,19 +839,19 @@
         <v>1.50004026131774</v>
       </c>
       <c r="C17" t="n">
-        <v>1.54199366376834</v>
+        <v>1.54108149620735</v>
       </c>
       <c r="D17" t="n">
-        <v>2.13980822488899</v>
+        <v>2.1124575663501</v>
       </c>
       <c r="E17" t="n">
-        <v>2.09793774222279</v>
+        <v>2.08305389764307</v>
       </c>
       <c r="F17" t="n">
-        <v>2.99951777249164</v>
+        <v>2.85124692755037</v>
       </c>
       <c r="G17" t="n">
-        <v>3.49778979124242</v>
+        <v>2.99999106774496</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -865,16 +865,16 @@
         <v>1430.56203649284</v>
       </c>
       <c r="C18" t="n">
-        <v>4053.19533648656</v>
+        <v>4034.27347442223</v>
       </c>
       <c r="D18" t="n">
-        <v>6685.76527824046</v>
+        <v>6686.7142658602</v>
       </c>
       <c r="E18" t="n">
-        <v>6684.48329691277</v>
+        <v>6684.70973116847</v>
       </c>
       <c r="F18" t="n">
-        <v>9313.88715384222</v>
+        <v>9317.09305417794</v>
       </c>
       <c r="G18" t="n">
         <v>12681.0377219363</v>
@@ -891,16 +891,16 @@
         <v>1089.43844183117</v>
       </c>
       <c r="C19" t="n">
-        <v>3264.33211748678</v>
+        <v>3266.72344181775</v>
       </c>
       <c r="D19" t="n">
-        <v>5384.29723563198</v>
+        <v>5385.31759111983</v>
       </c>
       <c r="E19" t="n">
-        <v>5387.53252268167</v>
+        <v>5387.46337253575</v>
       </c>
       <c r="F19" t="n">
-        <v>7488.71961338864</v>
+        <v>7485.3750789994</v>
       </c>
       <c r="G19" t="n">
         <v>10165.5014233408</v>
@@ -917,16 +917,16 @@
         <v>1149.99784016005</v>
       </c>
       <c r="C20" t="n">
-        <v>3101.05724641868</v>
+        <v>3108.01633241942</v>
       </c>
       <c r="D20" t="n">
-        <v>5107.61062733193</v>
+        <v>5105.51327062952</v>
       </c>
       <c r="E20" t="n">
-        <v>5106.81123162627</v>
+        <v>5104.40197156224</v>
       </c>
       <c r="F20" t="n">
-        <v>7113.05192640197</v>
+        <v>7112.61323808042</v>
       </c>
       <c r="G20" t="n">
         <v>9576.0876904207</v>
@@ -943,16 +943,16 @@
         <v>1005.6426708691</v>
       </c>
       <c r="C21" t="n">
-        <v>2925.81616562219</v>
+        <v>2915.68380919859</v>
       </c>
       <c r="D21" t="n">
-        <v>4793.26289721465</v>
+        <v>4791.62823733982</v>
       </c>
       <c r="E21" t="n">
-        <v>4789.41672676804</v>
+        <v>4790.03851118409</v>
       </c>
       <c r="F21" t="n">
-        <v>6680.11685297307</v>
+        <v>6673.10442852008</v>
       </c>
       <c r="G21" t="n">
         <v>8955.38754266021</v>
@@ -969,16 +969,16 @@
         <v>14.0361928983377</v>
       </c>
       <c r="C22" t="n">
-        <v>41.1870222447896</v>
+        <v>41.2561501054474</v>
       </c>
       <c r="D22" t="n">
-        <v>67.8596324642761</v>
+        <v>67.8774488630255</v>
       </c>
       <c r="E22" t="n">
-        <v>67.8614401171181</v>
+        <v>67.8540371297722</v>
       </c>
       <c r="F22" t="n">
-        <v>94.275170507753</v>
+        <v>94.4568605872071</v>
       </c>
       <c r="G22" t="n">
         <v>125.936954519803</v>
@@ -992,19 +992,19 @@
         <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>4.86455732322552</v>
+        <v>4.96925846828866</v>
       </c>
       <c r="C23" t="n">
-        <v>14.1276755508576</v>
+        <v>14.0972120615102</v>
       </c>
       <c r="D23" t="n">
-        <v>23.2219415296271</v>
+        <v>23.2033291619894</v>
       </c>
       <c r="E23" t="n">
-        <v>23.21854697563</v>
+        <v>23.207353541631</v>
       </c>
       <c r="F23" t="n">
-        <v>32.263068737367</v>
+        <v>32.2516335597981</v>
       </c>
       <c r="G23" t="n">
         <v>45.5170354499567</v>
@@ -1021,19 +1021,19 @@
         <v>2.65575157778109</v>
       </c>
       <c r="C24" t="n">
-        <v>6.90817659179424</v>
+        <v>6.90531462109457</v>
       </c>
       <c r="D24" t="n">
-        <v>11.4150196133521</v>
+        <v>11.4129504119885</v>
       </c>
       <c r="E24" t="n">
-        <v>11.4137593981445</v>
+        <v>11.4188741763382</v>
       </c>
       <c r="F24" t="n">
-        <v>15.8984011910272</v>
+        <v>15.881612246514</v>
       </c>
       <c r="G24" t="n">
-        <v>20.6635091441203</v>
+        <v>20.8674841376725</v>
       </c>
       <c r="H24" t="s">
         <v>17</v>
@@ -1044,19 +1044,19 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>3.48686200365584</v>
+        <v>3.40328065734365</v>
       </c>
       <c r="C25" t="n">
-        <v>9.86833419581917</v>
+        <v>9.88730879459068</v>
       </c>
       <c r="D25" t="n">
-        <v>16.2392247715859</v>
+        <v>16.2549820575045</v>
       </c>
       <c r="E25" t="n">
-        <v>16.2513431554639</v>
+        <v>16.2633686483988</v>
       </c>
       <c r="F25" t="n">
-        <v>22.5886556034896</v>
+        <v>22.5937105650637</v>
       </c>
       <c r="G25" t="n">
         <v>30.0102835019049</v>
@@ -1070,22 +1070,22 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0138054072215055</v>
+        <v>0.0130474105123126</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0209715689248153</v>
+        <v>0.0208506779534726</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0356019763359457</v>
+        <v>0.0347242895190912</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0339963885090026</v>
+        <v>0.0332063699709871</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0598983217430524</v>
+        <v>0.0577040210089048</v>
       </c>
       <c r="G26" t="n">
-        <v>0.182007339034055</v>
+        <v>0.158124990194769</v>
       </c>
       <c r="H26" t="s">
         <v>18</v>
@@ -1096,22 +1096,22 @@
         <v>8</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8500022449065</v>
+        <v>0.800001325972683</v>
       </c>
       <c r="C27" t="n">
-        <v>0.853354669095716</v>
+        <v>0.814211623621882</v>
       </c>
       <c r="D27" t="n">
-        <v>0.90001421452869</v>
+        <v>0.888386454635636</v>
       </c>
       <c r="E27" t="n">
-        <v>0.900036250543781</v>
+        <v>0.891270378185676</v>
       </c>
       <c r="F27" t="n">
-        <v>0.946639078844455</v>
+        <v>0.945932121184867</v>
       </c>
       <c r="G27" t="n">
-        <v>0.949999343883246</v>
+        <v>0.949999459979907</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
@@ -1122,22 +1122,22 @@
         <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>25609.6391427034</v>
+        <v>26573.7665467139</v>
       </c>
       <c r="C28" t="n">
-        <v>44065.4880345249</v>
+        <v>43297.6913998287</v>
       </c>
       <c r="D28" t="n">
-        <v>70953.2529705163</v>
+        <v>68258.4681748415</v>
       </c>
       <c r="E28" t="n">
-        <v>70235.8051846787</v>
+        <v>67932.3969749865</v>
       </c>
       <c r="F28" t="n">
-        <v>101988.286173924</v>
+        <v>95004.9119868568</v>
       </c>
       <c r="G28" t="n">
-        <v>134438.946863554</v>
+        <v>122363.347750648</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
@@ -1148,22 +1148,22 @@
         <v>8</v>
       </c>
       <c r="B29" t="n">
-        <v>3.49652370319748</v>
+        <v>3.66512402306511</v>
       </c>
       <c r="C29" t="n">
-        <v>6.57613540848944</v>
+        <v>6.51928160484418</v>
       </c>
       <c r="D29" t="n">
-        <v>12.348069973232</v>
+        <v>12.0462759431406</v>
       </c>
       <c r="E29" t="n">
-        <v>11.7344950610534</v>
+        <v>11.4749353844378</v>
       </c>
       <c r="F29" t="n">
-        <v>21.7543655714038</v>
+        <v>21.0600264554761</v>
       </c>
       <c r="G29" t="n">
-        <v>64.2387586190501</v>
+        <v>68.0549346040447</v>
       </c>
       <c r="H29" t="s">
         <v>21</v>
@@ -1174,22 +1174,22 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0118375676945358</v>
+        <v>0.0129934819994118</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0188771149492582</v>
+        <v>0.0189588176502505</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0327780424219987</v>
+        <v>0.0328402598828854</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0310089557142294</v>
+        <v>0.0311366501978254</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0570710722687552</v>
+        <v>0.0567087304150561</v>
       </c>
       <c r="G30" t="n">
-        <v>0.192792280028154</v>
+        <v>0.195882116508292</v>
       </c>
       <c r="H30" t="s">
         <v>18</v>
@@ -1200,22 +1200,22 @@
         <v>10</v>
       </c>
       <c r="B31" t="n">
-        <v>0.850000723684207</v>
+        <v>0.800006142042167</v>
       </c>
       <c r="C31" t="n">
-        <v>0.853311352704186</v>
+        <v>0.814346333368092</v>
       </c>
       <c r="D31" t="n">
-        <v>0.899974893716823</v>
+        <v>0.888379952562697</v>
       </c>
       <c r="E31" t="n">
-        <v>0.900045452569611</v>
+        <v>0.891179698942495</v>
       </c>
       <c r="F31" t="n">
-        <v>0.946560657818918</v>
+        <v>0.945904907801852</v>
       </c>
       <c r="G31" t="n">
-        <v>0.949999961559661</v>
+        <v>0.949999251232065</v>
       </c>
       <c r="H31" t="s">
         <v>19</v>
@@ -1226,22 +1226,22 @@
         <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>16366.6622391979</v>
+        <v>16567.7719540081</v>
       </c>
       <c r="C32" t="n">
-        <v>27307.7683558608</v>
+        <v>27220.5502931098</v>
       </c>
       <c r="D32" t="n">
-        <v>45048.6253765035</v>
+        <v>44537.6921322833</v>
       </c>
       <c r="E32" t="n">
-        <v>43871.4800927683</v>
+        <v>43597.6650568061</v>
       </c>
       <c r="F32" t="n">
-        <v>69067.4372256124</v>
+        <v>66549.5069994244</v>
       </c>
       <c r="G32" t="n">
-        <v>102213.692282466</v>
+        <v>89477.5633534774</v>
       </c>
       <c r="H32" t="s">
         <v>20</v>
@@ -1252,22 +1252,22 @@
         <v>10</v>
       </c>
       <c r="B33" t="n">
-        <v>2.51756747622122</v>
+        <v>2.75042826709312</v>
       </c>
       <c r="C33" t="n">
-        <v>5.03800429839526</v>
+        <v>5.0827313085502</v>
       </c>
       <c r="D33" t="n">
-        <v>9.73583289822636</v>
+        <v>9.75328325654722</v>
       </c>
       <c r="E33" t="n">
-        <v>9.15991791677098</v>
+        <v>9.20465801498353</v>
       </c>
       <c r="F33" t="n">
-        <v>17.7495253616455</v>
+        <v>17.6014844141599</v>
       </c>
       <c r="G33" t="n">
-        <v>53.3882038788417</v>
+        <v>54.5310533937057</v>
       </c>
       <c r="H33" t="s">
         <v>21</v>
@@ -1278,22 +1278,22 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0149290367996691</v>
+        <v>0.0142792519117268</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0219671349768632</v>
+        <v>0.0221614525117038</v>
       </c>
       <c r="D34" t="n">
-        <v>0.038169026259712</v>
+        <v>0.0382341370875108</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0361003158730827</v>
+        <v>0.0363187175241403</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0660238131499524</v>
+        <v>0.0657783673656661</v>
       </c>
       <c r="G34" t="n">
-        <v>0.210248801302494</v>
+        <v>0.187668617401523</v>
       </c>
       <c r="H34" t="s">
         <v>18</v>
@@ -1304,22 +1304,22 @@
         <v>11</v>
       </c>
       <c r="B35" t="n">
-        <v>0.850000324193388</v>
+        <v>0.800009211058189</v>
       </c>
       <c r="C35" t="n">
-        <v>0.853410133383586</v>
+        <v>0.814148498574378</v>
       </c>
       <c r="D35" t="n">
-        <v>0.899879810201968</v>
+        <v>0.888337710853499</v>
       </c>
       <c r="E35" t="n">
-        <v>0.899742677272297</v>
+        <v>0.891162796071955</v>
       </c>
       <c r="F35" t="n">
-        <v>0.946668707599747</v>
+        <v>0.945855068794626</v>
       </c>
       <c r="G35" t="n">
-        <v>0.949999756016768</v>
+        <v>0.949999530738597</v>
       </c>
       <c r="H35" t="s">
         <v>19</v>
@@ -1330,22 +1330,22 @@
         <v>11</v>
       </c>
       <c r="B36" t="n">
-        <v>16000.1483673584</v>
+        <v>16206.7824859112</v>
       </c>
       <c r="C36" t="n">
-        <v>21006.6100155806</v>
+        <v>20980.2367193207</v>
       </c>
       <c r="D36" t="n">
-        <v>33578.2578569923</v>
+        <v>33173.3773029908</v>
       </c>
       <c r="E36" t="n">
-        <v>32690.2927165098</v>
+        <v>32469.1440004624</v>
       </c>
       <c r="F36" t="n">
-        <v>51012.3337022561</v>
+        <v>49139.1688712308</v>
       </c>
       <c r="G36" t="n">
-        <v>76768.0467392613</v>
+        <v>66714.4810995215</v>
       </c>
       <c r="H36" t="s">
         <v>20</v>
@@ -1356,22 +1356,22 @@
         <v>11</v>
       </c>
       <c r="B37" t="n">
-        <v>2.24622646703723</v>
+        <v>2.30566775632877</v>
       </c>
       <c r="C37" t="n">
-        <v>4.06326898642773</v>
+        <v>4.0868155582245</v>
       </c>
       <c r="D37" t="n">
-        <v>7.65126627842545</v>
+        <v>7.66524912492238</v>
       </c>
       <c r="E37" t="n">
-        <v>7.19592912608957</v>
+        <v>7.23804151442624</v>
       </c>
       <c r="F37" t="n">
-        <v>13.8294213599552</v>
+        <v>13.7425465072176</v>
       </c>
       <c r="G37" t="n">
-        <v>37.9924350823541</v>
+        <v>45.9506919811601</v>
       </c>
       <c r="H37" t="s">
         <v>21</v>
@@ -1382,22 +1382,22 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0165309253424542</v>
+        <v>0.0160773458875501</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0247715735190694</v>
+        <v>0.024931790675803</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0428851061496734</v>
+        <v>0.0429471754905782</v>
       </c>
       <c r="E38" t="n">
-        <v>0.040552581395763</v>
+        <v>0.0407529955178683</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07428632611531</v>
+        <v>0.0737081788563986</v>
       </c>
       <c r="G38" t="n">
-        <v>0.236818858813103</v>
+        <v>0.221902363953892</v>
       </c>
       <c r="H38" t="s">
         <v>18</v>
@@ -1408,22 +1408,22 @@
         <v>12</v>
       </c>
       <c r="B39" t="n">
-        <v>0.850000336696394</v>
+        <v>0.800000465331535</v>
       </c>
       <c r="C39" t="n">
-        <v>0.853434942426975</v>
+        <v>0.814350560180317</v>
       </c>
       <c r="D39" t="n">
-        <v>0.900126308789642</v>
+        <v>0.888610248974216</v>
       </c>
       <c r="E39" t="n">
-        <v>0.90010527682025</v>
+        <v>0.891444376008574</v>
       </c>
       <c r="F39" t="n">
-        <v>0.946597219753312</v>
+        <v>0.94602126312589</v>
       </c>
       <c r="G39" t="n">
-        <v>0.949999641929753</v>
+        <v>0.94999861201333</v>
       </c>
       <c r="H39" t="s">
         <v>19</v>
@@ -1434,22 +1434,22 @@
         <v>12</v>
       </c>
       <c r="B40" t="n">
-        <v>14004.2949339101</v>
+        <v>13966.2933007937</v>
       </c>
       <c r="C40" t="n">
-        <v>17885.2557360079</v>
+        <v>17836.6680338383</v>
       </c>
       <c r="D40" t="n">
-        <v>28373.5980168464</v>
+        <v>28008.9049724512</v>
       </c>
       <c r="E40" t="n">
-        <v>27595.8966911044</v>
+        <v>27382.4635954802</v>
       </c>
       <c r="F40" t="n">
-        <v>42891.6498649898</v>
+        <v>41389.8506809832</v>
       </c>
       <c r="G40" t="n">
-        <v>61848.9121080208</v>
+        <v>53864.2001116769</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
@@ -1460,22 +1460,22 @@
         <v>12</v>
       </c>
       <c r="B41" t="n">
-        <v>2.05739250292352</v>
+        <v>2.31046905241421</v>
       </c>
       <c r="C41" t="n">
-        <v>3.68061712678979</v>
+        <v>3.71146124221033</v>
       </c>
       <c r="D41" t="n">
-        <v>6.8834795627403</v>
+        <v>6.89203116789138</v>
       </c>
       <c r="E41" t="n">
-        <v>6.48231561034817</v>
+        <v>6.51134305209396</v>
       </c>
       <c r="F41" t="n">
-        <v>12.3968196744656</v>
+        <v>12.2987630808469</v>
       </c>
       <c r="G41" t="n">
-        <v>34.7956207107982</v>
+        <v>40.1646593037279</v>
       </c>
       <c r="H41" t="s">
         <v>21</v>
@@ -1486,22 +1486,22 @@
         <v>8</v>
       </c>
       <c r="B42" t="n">
-        <v>137.555780271871</v>
+        <v>107.400316225466</v>
       </c>
       <c r="C42" t="n">
-        <v>372.382082685988</v>
+        <v>367.249722445567</v>
       </c>
       <c r="D42" t="n">
-        <v>838.036399849542</v>
+        <v>817.847074407423</v>
       </c>
       <c r="E42" t="n">
-        <v>785.90375444921</v>
+        <v>768.415004254002</v>
       </c>
       <c r="F42" t="n">
-        <v>1606.6733330904</v>
+        <v>1555.31199161448</v>
       </c>
       <c r="G42" t="n">
-        <v>4780.24966983913</v>
+        <v>5547.53378840052</v>
       </c>
       <c r="H42" t="s">
         <v>22</v>
@@ -1512,22 +1512,22 @@
         <v>10</v>
       </c>
       <c r="B43" t="n">
-        <v>27.205246559231</v>
+        <v>37.1657268328869</v>
       </c>
       <c r="C43" t="n">
-        <v>98.3825781560992</v>
+        <v>98.8821777998532</v>
       </c>
       <c r="D43" t="n">
-        <v>226.022479175145</v>
+        <v>226.296445450132</v>
       </c>
       <c r="E43" t="n">
-        <v>210.142845883117</v>
+        <v>211.080962133639</v>
       </c>
       <c r="F43" t="n">
-        <v>446.085147127326</v>
+        <v>441.840262360131</v>
       </c>
       <c r="G43" t="n">
-        <v>1426.71880776252</v>
+        <v>1523.64965477712</v>
       </c>
       <c r="H43" t="s">
         <v>22</v>
@@ -1538,22 +1538,22 @@
         <v>11</v>
       </c>
       <c r="B44" t="n">
-        <v>8.49111604926644</v>
+        <v>9.43058458605051</v>
       </c>
       <c r="C44" t="n">
-        <v>38.682812294605</v>
+        <v>38.9754910729192</v>
       </c>
       <c r="D44" t="n">
-        <v>87.3069414379729</v>
+        <v>87.4720225512977</v>
       </c>
       <c r="E44" t="n">
-        <v>81.2109972800295</v>
+        <v>81.6264786969934</v>
       </c>
       <c r="F44" t="n">
-        <v>170.980370623951</v>
+        <v>170.138510664147</v>
       </c>
       <c r="G44" t="n">
-        <v>568.861810121852</v>
+        <v>478.384233961743</v>
       </c>
       <c r="H44" t="s">
         <v>22</v>
@@ -1564,22 +1564,22 @@
         <v>12</v>
       </c>
       <c r="B45" t="n">
-        <v>15.0272345185261</v>
+        <v>16.7905191778637</v>
       </c>
       <c r="C45" t="n">
-        <v>49.8254742761078</v>
+        <v>50.1518996618518</v>
       </c>
       <c r="D45" t="n">
-        <v>111.749974905978</v>
+        <v>111.998842878935</v>
       </c>
       <c r="E45" t="n">
-        <v>104.03866354813</v>
+        <v>104.564557857329</v>
       </c>
       <c r="F45" t="n">
-        <v>218.805544920763</v>
+        <v>216.485444670416</v>
       </c>
       <c r="G45" t="n">
-        <v>572.921456279388</v>
+        <v>645.859953771358</v>
       </c>
       <c r="H45" t="s">
         <v>22</v>
@@ -1590,22 +1590,22 @@
         <v>8</v>
       </c>
       <c r="B46" t="n">
-        <v>111.827476605863</v>
+        <v>86.6132569649369</v>
       </c>
       <c r="C46" t="n">
-        <v>292.828769887502</v>
+        <v>289.4034148682</v>
       </c>
       <c r="D46" t="n">
-        <v>670.491869650502</v>
+        <v>654.354812977798</v>
       </c>
       <c r="E46" t="n">
-        <v>626.494098574606</v>
+        <v>613.315131915703</v>
       </c>
       <c r="F46" t="n">
-        <v>1300.53328516584</v>
+        <v>1257.14657552241</v>
       </c>
       <c r="G46" t="n">
-        <v>4130.66591475121</v>
+        <v>4565.06639238687</v>
       </c>
       <c r="H46" t="s">
         <v>23</v>
@@ -1616,22 +1616,22 @@
         <v>10</v>
       </c>
       <c r="B47" t="n">
-        <v>20.4905754748067</v>
+        <v>28.3593222415416</v>
       </c>
       <c r="C47" t="n">
-        <v>77.5807158517612</v>
+        <v>77.8236461455844</v>
       </c>
       <c r="D47" t="n">
-        <v>180.722562045428</v>
+        <v>181.008823145205</v>
       </c>
       <c r="E47" t="n">
-        <v>167.66623106851</v>
+        <v>168.498350875499</v>
       </c>
       <c r="F47" t="n">
-        <v>360.395961262783</v>
+        <v>356.595796255891</v>
       </c>
       <c r="G47" t="n">
-        <v>1272.27303818768</v>
+        <v>1110.13780959192</v>
       </c>
       <c r="H47" t="s">
         <v>23</v>
@@ -1642,22 +1642,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="n">
-        <v>6.4061200810256</v>
+        <v>8.46878948419991</v>
       </c>
       <c r="C48" t="n">
-        <v>30.4547822719123</v>
+        <v>30.6825809816439</v>
       </c>
       <c r="D48" t="n">
-        <v>69.8499235605624</v>
+        <v>69.968036862067</v>
       </c>
       <c r="E48" t="n">
-        <v>64.7783597128404</v>
+        <v>65.2376521942492</v>
       </c>
       <c r="F48" t="n">
-        <v>138.638060820435</v>
+        <v>136.941496224943</v>
       </c>
       <c r="G48" t="n">
-        <v>484.100055227918</v>
+        <v>362.291476565331</v>
       </c>
       <c r="H48" t="s">
         <v>23</v>
@@ -1668,22 +1668,22 @@
         <v>12</v>
       </c>
       <c r="B49" t="n">
-        <v>11.7075493787266</v>
+        <v>12.2159977022572</v>
       </c>
       <c r="C49" t="n">
-        <v>39.2040944835421</v>
+        <v>39.6121594815483</v>
       </c>
       <c r="D49" t="n">
-        <v>89.4361575926233</v>
+        <v>89.6195254042993</v>
       </c>
       <c r="E49" t="n">
-        <v>83.0298349242873</v>
+        <v>83.4271454342877</v>
       </c>
       <c r="F49" t="n">
-        <v>176.987297479381</v>
+        <v>174.826431899219</v>
       </c>
       <c r="G49" t="n">
-        <v>487.869453168769</v>
+        <v>514.894338854913</v>
       </c>
       <c r="H49" t="s">
         <v>23</v>

--- a/output/supp_mat2.xlsx
+++ b/output/supp_mat2.xlsx
@@ -1,122 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgilbe01\Desktop\PhD_2020-2023_09\01.Analyses\FeSthOpinn\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F67704B-1585-49EF-B30B-654DEF6A7A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Nb of days of presence considered in the study</t>
-  </si>
-  <si>
-    <t>Mean Fe yearly release (t/yr)</t>
-  </si>
-  <si>
-    <t>Confidence interval</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Sperm whales</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>Lavery et al. 2010</t>
-  </si>
-  <si>
-    <t>Antarctic blue whales</t>
-  </si>
-  <si>
-    <t>Lavery et al. 2014</t>
-  </si>
-  <si>
-    <t>60-180</t>
-  </si>
-  <si>
-    <t>9-24</t>
-  </si>
-  <si>
-    <t>Savoca et al. 2021</t>
-  </si>
-  <si>
-    <t>Humpback whales</t>
-  </si>
-  <si>
-    <t>144-394</t>
-  </si>
-  <si>
-    <t>Antarctic fin whales</t>
-  </si>
-  <si>
-    <t>193-590</t>
-  </si>
-  <si>
-    <t>Antarctic minke whales</t>
-  </si>
-  <si>
-    <t>420-937</t>
-  </si>
-  <si>
-    <t>Chinstrap, Adelie and Gentoo penguins</t>
-  </si>
-  <si>
-    <t>deduced from Sparaventi et al. 2021</t>
-  </si>
-  <si>
-    <t>Leopard seals</t>
-  </si>
-  <si>
-    <t>2.3 - 24.8</t>
-  </si>
-  <si>
-    <t>this study</t>
-  </si>
-  <si>
-    <t>Weddell seals</t>
-  </si>
-  <si>
-    <t>12.5 - 105.2</t>
-  </si>
-  <si>
-    <t>Crabeater seals</t>
-  </si>
-  <si>
-    <t>59.8 - 316</t>
-  </si>
-  <si>
-    <t>Ross seals</t>
-  </si>
-  <si>
-    <t>0.9 - 7.6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nb of days of presence considered in the study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean Fe yearly release (t/yr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confidence interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sperm whales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavery et al. 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antarctic blue whales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavery et al. 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60-180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savoca et al. 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humpback whales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144-394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antarctic fin whales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193-590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antarctic minke whales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420-937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinstrap, Adelie and Gentoo penguins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deduced from Sparaventi et al. 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimates from this study were originally calculated for the reproduction period only. They were raised to annual estimates using a simple cross product.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leopard seals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3 - 24.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weddell seals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5 - 105.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crabeater seals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.8 - 316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross seals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9 - 7.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -152,15 +151,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -442,20 +432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,187 +455,206 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
         <v>50</v>
       </c>
+      <c r="D2"/>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>65</v>
       </c>
+      <c r="D3"/>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
         <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C5" t="n">
+        <v>221</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>221</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5"/>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
         <v>367</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
         <v>630</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
         <v>169</v>
       </c>
+      <c r="D8"/>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>9.9</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
         <v>44.1</v>
       </c>
       <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10"/>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
         <v>151.5</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
         <v>3.1</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>